--- a/homework/100325/19.xlsx
+++ b/homework/100325/19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrHir\PycharmProjects\ege_info_tutor\homework\100325\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923C8181-AC01-4373-886B-E532061D4446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087B1DB1-9053-4FFF-9B70-D1D7F3F83C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,14 +513,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="20" width="4.5703125" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" customWidth="1"/>
+    <col min="2" max="21" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1766,84 +1765,84 @@
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
-        <f t="shared" ref="B23:B40" si="0">B24+B2</f>
-        <v>965</v>
+        <f t="shared" ref="B23:B40" si="0">B24+ABS(B3-B2)</f>
+        <v>370</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:C26" si="1">MIN(B23+C2,C24 + C2)</f>
-        <v>1036</v>
+        <f t="shared" ref="C23:U23" si="1">MIN(B23+ABS(C2-B2),C24 + ABS(C2-C3))</f>
+        <v>371</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:E26" si="2">MIN(C23+D2,D24 + D2)</f>
-        <v>985</v>
+        <f t="shared" si="1"/>
+        <v>384</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
-        <v>932</v>
+        <f t="shared" si="1"/>
+        <v>380</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" ref="F23:F31" si="3">MIN(E23+F2,F24 + F2)</f>
-        <v>984</v>
+        <f t="shared" si="1"/>
+        <v>412</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:G31" si="4">MIN(F23+G2,G24 + G2)</f>
-        <v>988</v>
+        <f t="shared" si="1"/>
+        <v>460</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" ref="H23:H31" si="5">MIN(G23+H2,H24 + H2)</f>
-        <v>927</v>
+        <f t="shared" si="1"/>
+        <v>524</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23:I31" si="6">MIN(H23+I2,I24 + I2)</f>
-        <v>903</v>
+        <f t="shared" si="1"/>
+        <v>475</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" ref="J23:J31" si="7">MIN(I23+J2,J24 + J2)</f>
-        <v>860</v>
+        <f t="shared" si="1"/>
+        <v>417</v>
       </c>
       <c r="K23">
-        <f t="shared" ref="K23:K30" si="8">MIN(J23+K2,K24 + K2)</f>
-        <v>861</v>
+        <f t="shared" si="1"/>
+        <v>435</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" ref="L23:L30" si="9">MIN(K23+L2,L24 + L2)</f>
-        <v>881</v>
+        <f t="shared" si="1"/>
+        <v>452</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" ref="M23:M26" si="10">MIN(L23+M2,M24 + M2)</f>
-        <v>968</v>
+        <f t="shared" si="1"/>
+        <v>517</v>
       </c>
       <c r="N23">
-        <f t="shared" ref="N23:N26" si="11">MIN(M23+N2,N24 + N2)</f>
-        <v>974</v>
+        <f t="shared" si="1"/>
+        <v>590</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" ref="O23:O26" si="12">MIN(N23+O2,O24 + O2)</f>
-        <v>1053</v>
+        <f t="shared" si="1"/>
+        <v>517</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" ref="P23:P26" si="13">MIN(O23+P2,P24 + P2)</f>
-        <v>1051</v>
+        <f t="shared" si="1"/>
+        <v>531</v>
       </c>
       <c r="Q23">
-        <f t="shared" ref="Q23:Q26" si="14">MIN(P23+Q2,Q24 + Q2)</f>
-        <v>1028</v>
+        <f t="shared" si="1"/>
+        <v>559</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" ref="R23:R26" si="15">MIN(Q23+R2,R24 + R2)</f>
-        <v>1056</v>
+        <f t="shared" si="1"/>
+        <v>574</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" ref="S23:S26" si="16">MIN(R23+S2,S24 + S2)</f>
-        <v>1079</v>
+        <f t="shared" si="1"/>
+        <v>557</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23:T26" si="17">MIN(S23+T2,T24 + T2)</f>
-        <v>1098</v>
+        <f t="shared" si="1"/>
+        <v>561</v>
       </c>
       <c r="U23" s="15">
-        <f t="shared" ref="U23:U26" si="18">MIN(T23+U2,U24 + U2)</f>
-        <v>1119</v>
+        <f t="shared" si="1"/>
+        <v>563</v>
       </c>
       <c r="Z23" t="s">
         <v>0</v>
@@ -1852,83 +1851,83 @@
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <f t="shared" si="0"/>
-        <v>893</v>
+        <v>357</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
-        <v>963</v>
+        <f t="shared" ref="C24:U24" si="2">MIN(B24+ABS(C3-B3),C25 + ABS(C3-C4))</f>
+        <v>393</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>899</v>
+        <v>367</v>
       </c>
       <c r="E24" s="17">
-        <f>MIN(D24+E3)</f>
-        <v>912</v>
+        <f>MIN(D24+ABS(E3-D3))</f>
+        <v>373</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="3"/>
-        <v>947</v>
+        <f t="shared" si="2"/>
+        <v>395</v>
       </c>
       <c r="G24">
-        <f t="shared" si="4"/>
-        <v>997</v>
+        <f t="shared" si="2"/>
+        <v>432</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="5"/>
-        <v>859</v>
+        <f t="shared" si="2"/>
+        <v>490</v>
       </c>
       <c r="I24">
-        <f t="shared" si="6"/>
-        <v>826</v>
+        <f t="shared" si="2"/>
+        <v>415</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="7"/>
-        <v>841</v>
+        <f t="shared" si="2"/>
+        <v>415</v>
       </c>
       <c r="K24">
-        <f t="shared" si="8"/>
-        <v>939</v>
+        <f t="shared" si="2"/>
+        <v>414</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="9"/>
-        <v>906</v>
+        <f t="shared" si="2"/>
+        <v>451</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="10"/>
-        <v>900</v>
+        <f t="shared" si="2"/>
+        <v>482</v>
       </c>
       <c r="N24">
-        <f t="shared" si="11"/>
-        <v>969</v>
+        <f t="shared" si="2"/>
+        <v>513</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="12"/>
-        <v>985</v>
+        <f t="shared" si="2"/>
+        <v>514</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" si="13"/>
-        <v>1004</v>
+        <f t="shared" si="2"/>
+        <v>526</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="14"/>
-        <v>1015</v>
+        <f t="shared" si="2"/>
+        <v>551</v>
       </c>
       <c r="R24" s="6">
-        <f t="shared" si="15"/>
-        <v>1097</v>
+        <f t="shared" si="2"/>
+        <v>570</v>
       </c>
       <c r="S24" s="6">
-        <f t="shared" si="16"/>
-        <v>1114</v>
+        <f t="shared" si="2"/>
+        <v>548</v>
       </c>
       <c r="T24">
-        <f t="shared" si="17"/>
-        <v>1193</v>
+        <f t="shared" si="2"/>
+        <v>613</v>
       </c>
       <c r="U24" s="6">
-        <f t="shared" si="18"/>
-        <v>1175</v>
+        <f t="shared" si="2"/>
+        <v>612</v>
       </c>
       <c r="Z24" t="s">
         <v>1</v>
@@ -1937,1287 +1936,1395 @@
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
         <f t="shared" si="0"/>
-        <v>834</v>
+        <v>335</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
-        <v>868</v>
+        <f t="shared" ref="C25:U25" si="3">MIN(B25+ABS(C4-B4),C26 + ABS(C4-C5))</f>
+        <v>338</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
-        <v>880</v>
-      </c>
-      <c r="E25" s="13"/>
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="3"/>
+        <v>281</v>
+      </c>
       <c r="F25" s="16">
-        <f t="shared" ref="F25:F31" si="19">MIN(F26 + F4)</f>
-        <v>930</v>
+        <f>MIN(F26 + ABS(F4-F5))</f>
+        <v>479</v>
       </c>
       <c r="G25">
-        <f t="shared" si="4"/>
-        <v>911</v>
+        <f t="shared" si="3"/>
+        <v>428</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="5"/>
-        <v>831</v>
+        <f t="shared" si="3"/>
+        <v>435</v>
       </c>
       <c r="I25">
-        <f t="shared" si="6"/>
-        <v>809</v>
+        <f t="shared" si="3"/>
+        <v>374</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="7"/>
-        <v>824</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="K25">
-        <f t="shared" si="8"/>
-        <v>900</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="9"/>
-        <v>885</v>
+        <f t="shared" si="3"/>
+        <v>411</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="10"/>
-        <v>848</v>
+        <f t="shared" si="3"/>
+        <v>442</v>
       </c>
       <c r="N25">
-        <f t="shared" si="11"/>
-        <v>886</v>
+        <f t="shared" si="3"/>
+        <v>470</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="12"/>
-        <v>903</v>
+        <f t="shared" si="3"/>
+        <v>491</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="13"/>
-        <v>952</v>
+        <f t="shared" si="3"/>
+        <v>523</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="14"/>
-        <v>994</v>
+        <f t="shared" si="3"/>
+        <v>530</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" si="15"/>
-        <v>1040</v>
+        <f t="shared" si="3"/>
+        <v>534</v>
       </c>
       <c r="S25" s="6">
-        <f t="shared" si="16"/>
-        <v>1082</v>
+        <f t="shared" si="3"/>
+        <v>538</v>
       </c>
       <c r="T25">
-        <f t="shared" si="17"/>
-        <v>1096</v>
+        <f t="shared" si="3"/>
+        <v>566</v>
       </c>
       <c r="U25" s="6">
-        <f t="shared" si="18"/>
-        <v>1115</v>
+        <f t="shared" si="3"/>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <f t="shared" si="0"/>
-        <v>797</v>
+        <v>316</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
-        <v>893</v>
+        <f t="shared" ref="C26:U26" si="4">MIN(B26+ABS(C5-B5),C27 + ABS(C5-C6))</f>
+        <v>350</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
-        <v>936</v>
-      </c>
-      <c r="E26" s="13"/>
+        <f t="shared" si="4"/>
+        <v>358</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="4"/>
+        <v>281</v>
+      </c>
       <c r="F26" s="16">
-        <f t="shared" si="19"/>
-        <v>897</v>
+        <f t="shared" ref="F26:F31" si="5">MIN(F27 + ABS(F5-F6))</f>
+        <v>425</v>
       </c>
       <c r="G26">
         <f t="shared" si="4"/>
-        <v>821</v>
+        <v>393</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="5"/>
-        <v>734</v>
+        <f t="shared" si="4"/>
+        <v>413</v>
       </c>
       <c r="I26">
-        <f t="shared" si="6"/>
-        <v>751</v>
+        <f t="shared" si="4"/>
+        <v>362</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="7"/>
-        <v>740</v>
+        <f t="shared" si="4"/>
+        <v>375</v>
       </c>
       <c r="K26">
-        <f t="shared" si="8"/>
-        <v>816</v>
+        <f t="shared" si="4"/>
+        <v>404</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="9"/>
-        <v>824</v>
+        <f t="shared" si="4"/>
+        <v>401</v>
       </c>
       <c r="M26" s="17">
-        <f>MIN(L26+M5)</f>
-        <v>838</v>
+        <f>MIN(L26+ABS(M5-L5))</f>
+        <v>438</v>
       </c>
       <c r="N26">
-        <f t="shared" si="11"/>
-        <v>921</v>
+        <f t="shared" si="4"/>
+        <v>507</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="12"/>
-        <v>991</v>
+        <f t="shared" si="4"/>
+        <v>520</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="13"/>
-        <v>1057</v>
+        <f t="shared" si="4"/>
+        <v>524</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="14"/>
-        <v>1143</v>
+        <f t="shared" si="4"/>
+        <v>544</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" si="15"/>
-        <v>1160</v>
+        <f t="shared" si="4"/>
+        <v>573</v>
       </c>
       <c r="S26" s="6">
-        <f t="shared" si="16"/>
-        <v>1158</v>
+        <f t="shared" si="4"/>
+        <v>587</v>
       </c>
       <c r="T26">
-        <f t="shared" si="17"/>
-        <v>1209</v>
+        <f t="shared" si="4"/>
+        <v>606</v>
       </c>
       <c r="U26" s="6">
-        <f t="shared" si="18"/>
-        <v>1289</v>
+        <f t="shared" si="4"/>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <f t="shared" si="0"/>
-        <v>779</v>
+        <v>292</v>
       </c>
       <c r="C27" s="17">
-        <f t="shared" ref="C27:D27" si="20">MIN(B27+C6)</f>
-        <v>819</v>
+        <f>MIN(B27+ABS(C6-B6))</f>
+        <v>294</v>
       </c>
       <c r="D27" s="17">
-        <f t="shared" si="20"/>
-        <v>850</v>
-      </c>
-      <c r="E27" s="13"/>
+        <f>MIN(C27+ABS(D6-C6))</f>
+        <v>303</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" ref="E27:U27" si="6">MIN(D27+ABS(E6-D6),E28 + ABS(E6-E7))</f>
+        <v>281</v>
+      </c>
       <c r="F27" s="16">
-        <f t="shared" si="19"/>
-        <v>810</v>
+        <f t="shared" si="5"/>
+        <v>416</v>
       </c>
       <c r="G27">
-        <f t="shared" si="4"/>
-        <v>766</v>
+        <f t="shared" si="6"/>
+        <v>365</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="5"/>
-        <v>699</v>
+        <f t="shared" si="6"/>
+        <v>430</v>
       </c>
       <c r="I27">
         <f t="shared" si="6"/>
-        <v>705</v>
+        <v>361</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="7"/>
-        <v>681</v>
+        <f t="shared" si="6"/>
+        <v>379</v>
       </c>
       <c r="K27">
-        <f t="shared" si="8"/>
-        <v>728</v>
+        <f t="shared" si="6"/>
+        <v>397</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="9"/>
-        <v>773</v>
-      </c>
-      <c r="M27" s="13"/>
+        <f t="shared" si="6"/>
+        <v>398</v>
+      </c>
+      <c r="M27" s="13">
+        <f t="shared" si="6"/>
+        <v>337</v>
+      </c>
       <c r="N27" s="16">
-        <f t="shared" ref="N27:N35" si="21">MIN(N28 + N6)</f>
-        <v>956</v>
+        <f t="shared" ref="N27:N35" si="7">MIN(N28 + ABS(N6-N7))</f>
+        <v>675</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" ref="O27:O32" si="22">MIN(N27+O6,O28 + O6)</f>
-        <v>961</v>
+        <f t="shared" si="6"/>
+        <v>655</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" ref="P27:P32" si="23">MIN(O27+P6,P28 + P6)</f>
-        <v>1013</v>
+        <f t="shared" si="6"/>
+        <v>650</v>
       </c>
       <c r="Q27">
-        <f t="shared" ref="Q27:Q32" si="24">MIN(P27+Q6,Q28 + Q6)</f>
-        <v>1083</v>
+        <f t="shared" si="6"/>
+        <v>658</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" ref="R27:R32" si="25">MIN(Q27+R6,R28 + R6)</f>
-        <v>1103</v>
+        <f t="shared" si="6"/>
+        <v>665</v>
       </c>
       <c r="S27" s="6">
-        <f t="shared" ref="S27:S32" si="26">MIN(R27+S6,S28 + S6)</f>
-        <v>1087</v>
+        <f t="shared" si="6"/>
+        <v>696</v>
       </c>
       <c r="T27">
-        <f t="shared" ref="T27:T32" si="27">MIN(S27+T6,T28 + T6)</f>
-        <v>1119</v>
+        <f t="shared" si="6"/>
+        <v>702</v>
       </c>
       <c r="U27" s="6">
-        <f t="shared" ref="U27:U32" si="28">MIN(T27+U6,U28 + U6)</f>
-        <v>1211</v>
+        <f t="shared" si="6"/>
+        <v>742</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
         <f t="shared" si="0"/>
-        <v>737</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+        <v>272</v>
+      </c>
+      <c r="C28" s="13">
+        <f t="shared" ref="C28:U28" si="8">MIN(B28+ABS(C7-B7),C29 + ABS(C7-C8))</f>
+        <v>295</v>
+      </c>
+      <c r="D28" s="13">
+        <f t="shared" si="8"/>
+        <v>295</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="8"/>
+        <v>281</v>
+      </c>
       <c r="F28" s="16">
-        <f t="shared" si="19"/>
-        <v>714</v>
+        <f t="shared" si="5"/>
+        <v>352</v>
       </c>
       <c r="G28">
-        <f t="shared" si="4"/>
-        <v>739</v>
+        <f t="shared" si="8"/>
+        <v>356</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="5"/>
-        <v>607</v>
+        <f t="shared" si="8"/>
+        <v>368</v>
       </c>
       <c r="I28">
-        <f t="shared" si="6"/>
-        <v>658</v>
+        <f t="shared" si="8"/>
+        <v>351</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" si="7"/>
-        <v>652</v>
+        <f t="shared" si="8"/>
+        <v>362</v>
       </c>
       <c r="K28">
         <f t="shared" si="8"/>
-        <v>696</v>
+        <v>386</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="9"/>
-        <v>725</v>
-      </c>
-      <c r="M28" s="13"/>
+        <f t="shared" si="8"/>
+        <v>449</v>
+      </c>
+      <c r="M28" s="13">
+        <f t="shared" si="8"/>
+        <v>337</v>
+      </c>
       <c r="N28" s="16">
-        <f t="shared" si="21"/>
-        <v>899</v>
+        <f t="shared" si="7"/>
+        <v>625</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="22"/>
-        <v>924</v>
+        <f t="shared" si="8"/>
+        <v>643</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="23"/>
-        <v>1006</v>
+        <f t="shared" si="8"/>
+        <v>620</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="24"/>
-        <v>1018</v>
+        <f t="shared" si="8"/>
+        <v>645</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" si="25"/>
-        <v>1026</v>
+        <f t="shared" si="8"/>
+        <v>694</v>
       </c>
       <c r="S28" s="6">
-        <f t="shared" si="26"/>
-        <v>1041</v>
+        <f t="shared" si="8"/>
+        <v>691</v>
       </c>
       <c r="T28">
-        <f t="shared" si="27"/>
-        <v>1067</v>
+        <f t="shared" si="8"/>
+        <v>702</v>
       </c>
       <c r="U28" s="6">
-        <f t="shared" si="28"/>
-        <v>1137</v>
+        <f t="shared" si="8"/>
+        <v>752</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
         <f t="shared" si="0"/>
-        <v>715</v>
+        <v>268</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C27:D40" si="29">MIN(B29+C8,C30 + C8)</f>
-        <v>737</v>
+        <f t="shared" ref="C29:U29" si="9">MIN(B29+ABS(C8-B8),C30 + ABS(C8-C9))</f>
+        <v>280</v>
       </c>
       <c r="D29" s="15">
-        <f t="shared" si="29"/>
-        <v>780</v>
-      </c>
-      <c r="E29" s="13"/>
+        <f t="shared" si="9"/>
+        <v>282</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="9"/>
+        <v>281</v>
+      </c>
       <c r="F29" s="16">
-        <f t="shared" si="19"/>
-        <v>682</v>
+        <f t="shared" si="5"/>
+        <v>338</v>
       </c>
       <c r="G29">
-        <f t="shared" si="4"/>
-        <v>703</v>
+        <f t="shared" si="9"/>
+        <v>333</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="5"/>
-        <v>583</v>
+        <f t="shared" si="9"/>
+        <v>335</v>
       </c>
       <c r="I29">
-        <f t="shared" si="6"/>
-        <v>601</v>
+        <f t="shared" si="9"/>
+        <v>348</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="7"/>
-        <v>584</v>
+        <f t="shared" si="9"/>
+        <v>376</v>
       </c>
       <c r="K29">
-        <f t="shared" si="8"/>
-        <v>604</v>
+        <f t="shared" si="9"/>
+        <v>382</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="9"/>
-        <v>700</v>
-      </c>
-      <c r="M29" s="13"/>
+        <v>458</v>
+      </c>
+      <c r="M29" s="13">
+        <f t="shared" si="9"/>
+        <v>337</v>
+      </c>
       <c r="N29" s="16">
-        <f t="shared" si="21"/>
-        <v>892</v>
+        <f t="shared" si="7"/>
+        <v>599</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="22"/>
-        <v>949</v>
+        <f t="shared" si="9"/>
+        <v>611</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" si="23"/>
-        <v>967</v>
+        <f t="shared" si="9"/>
+        <v>596</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="24"/>
-        <v>961</v>
+        <f t="shared" si="9"/>
+        <v>645</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" si="25"/>
-        <v>1049</v>
+        <f t="shared" si="9"/>
+        <v>648</v>
       </c>
       <c r="S29" s="6">
-        <f t="shared" si="26"/>
-        <v>1067</v>
+        <f t="shared" si="9"/>
+        <v>688</v>
       </c>
       <c r="T29">
-        <f t="shared" si="27"/>
-        <v>1126</v>
+        <f t="shared" si="9"/>
+        <v>711</v>
       </c>
       <c r="U29" s="6">
-        <f t="shared" si="28"/>
-        <v>1057</v>
+        <f t="shared" si="9"/>
+        <v>707</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
         <f t="shared" si="0"/>
-        <v>689</v>
+        <v>222</v>
       </c>
       <c r="C30">
-        <f t="shared" si="29"/>
-        <v>641</v>
+        <f t="shared" ref="C30:U30" si="10">MIN(B30+ABS(C9-B9),C31 + ABS(C9-C10))</f>
+        <v>239</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="29"/>
-        <v>682</v>
-      </c>
-      <c r="E30" s="13"/>
+        <f t="shared" si="10"/>
+        <v>244</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="10"/>
+        <v>281</v>
+      </c>
       <c r="F30" s="16">
-        <f t="shared" si="19"/>
-        <v>636</v>
+        <f t="shared" si="5"/>
+        <v>307</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
-        <v>624</v>
+        <f t="shared" si="10"/>
+        <v>321</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="5"/>
-        <v>502</v>
+        <f t="shared" si="10"/>
+        <v>330</v>
       </c>
       <c r="I30">
-        <f t="shared" si="6"/>
-        <v>547</v>
+        <f t="shared" si="10"/>
+        <v>339</v>
       </c>
       <c r="J30" s="6">
+        <f t="shared" si="10"/>
+        <v>361</v>
+      </c>
+      <c r="K30" s="17">
+        <f>MIN(J30+ABS(K9-J9))</f>
+        <v>395</v>
+      </c>
+      <c r="L30" s="17">
+        <f>MIN(K30+ABS(L9-K9))</f>
+        <v>417</v>
+      </c>
+      <c r="M30" s="13">
+        <f t="shared" si="10"/>
+        <v>337</v>
+      </c>
+      <c r="N30" s="16">
         <f t="shared" si="7"/>
-        <v>558</v>
-      </c>
-      <c r="K30" s="17">
-        <f t="shared" ref="K30:L30" si="30">MIN(J30+K9)</f>
-        <v>591</v>
-      </c>
-      <c r="L30" s="17">
-        <f t="shared" si="30"/>
-        <v>646</v>
-      </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="16">
-        <f t="shared" si="21"/>
-        <v>859</v>
+        <v>577</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="22"/>
-        <v>900</v>
+        <f t="shared" si="10"/>
+        <v>581</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="23"/>
-        <v>909</v>
+        <f t="shared" si="10"/>
+        <v>596</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="24"/>
-        <v>952</v>
+        <f t="shared" si="10"/>
+        <v>609</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" si="25"/>
-        <v>1012</v>
+        <f t="shared" si="10"/>
+        <v>620</v>
       </c>
       <c r="S30" s="6">
-        <f t="shared" si="26"/>
-        <v>1075</v>
+        <f t="shared" si="10"/>
+        <v>633</v>
       </c>
       <c r="T30">
-        <f t="shared" si="27"/>
-        <v>1041</v>
+        <f t="shared" si="10"/>
+        <v>657</v>
       </c>
       <c r="U30" s="6">
-        <f t="shared" si="28"/>
-        <v>1022</v>
+        <f t="shared" si="10"/>
+        <v>680</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <f t="shared" si="0"/>
-        <v>617</v>
+        <v>212</v>
       </c>
       <c r="C31">
-        <f t="shared" si="29"/>
-        <v>586</v>
+        <f t="shared" ref="C31:U31" si="11">MIN(B31+ABS(C10-B10),C32 + ABS(C10-C11))</f>
+        <v>252</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="29"/>
-        <v>622</v>
-      </c>
-      <c r="E31" s="13"/>
+        <f t="shared" si="11"/>
+        <v>236</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="11"/>
+        <v>281</v>
+      </c>
       <c r="F31" s="16">
-        <f t="shared" si="19"/>
-        <v>559</v>
+        <f t="shared" si="5"/>
+        <v>268</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
-        <v>533</v>
+        <f t="shared" si="11"/>
+        <v>298</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="5"/>
-        <v>466</v>
+        <f t="shared" si="11"/>
+        <v>316</v>
       </c>
       <c r="I31">
-        <f t="shared" si="6"/>
-        <v>560</v>
+        <f t="shared" si="11"/>
+        <v>360</v>
       </c>
       <c r="J31" s="6">
+        <f t="shared" si="11"/>
+        <v>367</v>
+      </c>
+      <c r="K31" s="13">
+        <f t="shared" si="11"/>
+        <v>377</v>
+      </c>
+      <c r="L31" s="13">
+        <f t="shared" si="11"/>
+        <v>377</v>
+      </c>
+      <c r="M31" s="13">
+        <f t="shared" si="11"/>
+        <v>337</v>
+      </c>
+      <c r="N31" s="16">
         <f t="shared" si="7"/>
-        <v>491</v>
-      </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="16">
-        <f t="shared" si="21"/>
-        <v>804</v>
+        <v>549</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="22"/>
-        <v>813</v>
+        <f t="shared" si="11"/>
+        <v>563</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="23"/>
-        <v>851</v>
+        <f t="shared" si="11"/>
+        <v>574</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="24"/>
-        <v>881</v>
+        <f t="shared" si="11"/>
+        <v>624</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="25"/>
-        <v>972</v>
+        <f t="shared" si="11"/>
+        <v>674</v>
       </c>
       <c r="S31" s="6">
-        <f t="shared" si="26"/>
-        <v>1002</v>
+        <f t="shared" si="11"/>
+        <v>665</v>
       </c>
       <c r="T31">
-        <f t="shared" si="27"/>
-        <v>1010</v>
+        <f t="shared" si="11"/>
+        <v>648</v>
       </c>
       <c r="U31" s="6">
-        <f t="shared" si="28"/>
-        <v>1014</v>
+        <f t="shared" si="11"/>
+        <v>684</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
         <f t="shared" si="0"/>
-        <v>535</v>
+        <v>204</v>
       </c>
       <c r="C32">
-        <f t="shared" si="29"/>
-        <v>562</v>
+        <f t="shared" ref="C32:U32" si="12">MIN(B32+ABS(C11-B11),C33 + ABS(C11-C12))</f>
+        <v>224</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="29"/>
-        <v>578</v>
+        <f t="shared" si="12"/>
+        <v>202</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32:E33" si="31">MIN(D32+E11,E33 + E11)</f>
-        <v>515</v>
+        <f t="shared" si="12"/>
+        <v>211</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" ref="F32:F33" si="32">MIN(E32+F11,F33 + F11)</f>
-        <v>521</v>
+        <f t="shared" si="12"/>
+        <v>215</v>
       </c>
       <c r="G32">
-        <f t="shared" ref="G32:G33" si="33">MIN(F32+G11,G33 + G11)</f>
-        <v>465</v>
+        <f t="shared" si="12"/>
+        <v>299</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" ref="H32:H33" si="34">MIN(G32+H11,H33 + H11)</f>
-        <v>416</v>
+        <f t="shared" si="12"/>
+        <v>300</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32:I33" si="35">MIN(H32+I11,I33 + I11)</f>
-        <v>487</v>
+        <f t="shared" si="12"/>
+        <v>365</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" ref="J32:J33" si="36">MIN(I32+J11,J33 + J11)</f>
-        <v>482</v>
+        <f t="shared" si="12"/>
+        <v>359</v>
       </c>
       <c r="K32">
-        <f t="shared" ref="K32:L33" si="37">MIN(J32+K11,K33 + K11)</f>
-        <v>554</v>
+        <f t="shared" si="12"/>
+        <v>368</v>
       </c>
       <c r="L32" s="15">
-        <f t="shared" si="37"/>
-        <v>552</v>
-      </c>
-      <c r="M32" s="13"/>
+        <f t="shared" si="12"/>
+        <v>384</v>
+      </c>
+      <c r="M32" s="13">
+        <f t="shared" si="12"/>
+        <v>337</v>
+      </c>
       <c r="N32" s="16">
-        <f t="shared" si="21"/>
-        <v>721</v>
+        <f t="shared" si="7"/>
+        <v>532</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" si="22"/>
-        <v>744</v>
+        <f t="shared" si="12"/>
+        <v>575</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" si="23"/>
-        <v>771</v>
+        <f t="shared" si="12"/>
+        <v>561</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="24"/>
-        <v>854</v>
+        <f t="shared" si="12"/>
+        <v>617</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" si="25"/>
-        <v>876</v>
+        <f t="shared" si="12"/>
+        <v>608</v>
       </c>
       <c r="S32" s="17">
-        <f>MIN(R32+S11)</f>
-        <v>915</v>
+        <f>MIN(R32+ABS(S11-R11))</f>
+        <v>617</v>
       </c>
       <c r="T32">
-        <f t="shared" si="27"/>
-        <v>970</v>
+        <f t="shared" si="12"/>
+        <v>633</v>
       </c>
       <c r="U32" s="6">
-        <f t="shared" si="28"/>
-        <v>1040</v>
+        <f t="shared" si="12"/>
+        <v>648</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="8">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>200</v>
       </c>
       <c r="C33">
-        <f t="shared" si="29"/>
-        <v>510</v>
+        <f t="shared" ref="C33:U33" si="13">MIN(B33+ABS(C12-B12),C34 + ABS(C12-C13))</f>
+        <v>200</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="29"/>
-        <v>500</v>
+        <f t="shared" si="13"/>
+        <v>201</v>
       </c>
       <c r="E33">
-        <f t="shared" si="31"/>
-        <v>428</v>
+        <f t="shared" si="13"/>
+        <v>258</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="32"/>
-        <v>430</v>
+        <f t="shared" si="13"/>
+        <v>276</v>
       </c>
       <c r="G33">
-        <f t="shared" si="33"/>
-        <v>458</v>
+        <f t="shared" si="13"/>
+        <v>280</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="34"/>
-        <v>410</v>
+        <f t="shared" si="13"/>
+        <v>305</v>
       </c>
       <c r="I33">
-        <f t="shared" si="35"/>
-        <v>422</v>
+        <f t="shared" si="13"/>
+        <v>308</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="36"/>
-        <v>465</v>
+        <f t="shared" si="13"/>
+        <v>333</v>
       </c>
       <c r="K33">
-        <f t="shared" si="37"/>
-        <v>505</v>
+        <f t="shared" si="13"/>
+        <v>336</v>
       </c>
       <c r="L33">
-        <f t="shared" si="37"/>
-        <v>550</v>
-      </c>
-      <c r="M33" s="13"/>
+        <f t="shared" si="13"/>
+        <v>341</v>
+      </c>
+      <c r="M33" s="13">
+        <f t="shared" si="13"/>
+        <v>337</v>
+      </c>
       <c r="N33" s="16">
-        <f t="shared" si="21"/>
-        <v>655</v>
+        <f t="shared" si="7"/>
+        <v>486</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" ref="O33:O35" si="38">MIN(N33+O12,O34 + O12)</f>
-        <v>746</v>
+        <f t="shared" si="13"/>
+        <v>545</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" ref="P33:P35" si="39">MIN(O33+P12,P34 + P12)</f>
-        <v>777</v>
+        <f t="shared" si="13"/>
+        <v>557</v>
       </c>
       <c r="Q33">
-        <f t="shared" ref="Q33:Q35" si="40">MIN(P33+Q12,Q34 + Q12)</f>
-        <v>860</v>
+        <f t="shared" si="13"/>
+        <v>613</v>
       </c>
       <c r="R33" s="6">
-        <f t="shared" ref="R33:R35" si="41">MIN(Q33+R12,R34 + R12)</f>
-        <v>846</v>
-      </c>
-      <c r="S33" s="13"/>
+        <f t="shared" si="13"/>
+        <v>590</v>
+      </c>
+      <c r="S33" s="13">
+        <f t="shared" si="13"/>
+        <v>509</v>
+      </c>
       <c r="T33" s="16">
-        <f t="shared" ref="T33:T39" si="42">MIN(T34 + T12)</f>
-        <v>1033</v>
+        <f>MIN(N28 + ABS(N6-N7))</f>
+        <v>675</v>
       </c>
       <c r="U33" s="6">
-        <f t="shared" ref="U33:U40" si="43">MIN(T33+U12,U34 + U12)</f>
-        <v>1132</v>
+        <f t="shared" si="13"/>
+        <v>672</v>
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="8">
         <f t="shared" si="0"/>
-        <v>391</v>
+        <v>197</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C35" si="44">MIN(B34+C13,C35 + C13)</f>
-        <v>434</v>
+        <f t="shared" ref="C34:U34" si="14">MIN(B34+ABS(C13-B13),C35 + ABS(C13-C14))</f>
+        <v>198</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" ref="D34:D35" si="45">MIN(C34+D13,D35 + D13)</f>
-        <v>423</v>
+        <f t="shared" si="14"/>
+        <v>209</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:F41" si="46">MIN(D34+E13,E35 + E13)</f>
-        <v>408</v>
+        <f t="shared" si="14"/>
+        <v>227</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" ref="F34:F37" si="47">MIN(E34+F13,F35 + F13)</f>
-        <v>455</v>
+        <f t="shared" si="14"/>
+        <v>230</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G37" si="48">MIN(F34+G13,G35 + G13)</f>
-        <v>424</v>
+        <f t="shared" si="14"/>
+        <v>235</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" ref="H34:H37" si="49">MIN(G34+H13,H35 + H13)</f>
-        <v>401</v>
+        <f t="shared" si="14"/>
+        <v>300</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34:I35" si="50">MIN(H34+I13,I35 + I13)</f>
-        <v>488</v>
+        <f t="shared" si="14"/>
+        <v>289</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" ref="J34:J35" si="51">MIN(I34+J13,J35 + J13)</f>
-        <v>563</v>
+        <f t="shared" si="14"/>
+        <v>301</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:L35" si="52">MIN(J34+K13,K35 + K13)</f>
-        <v>608</v>
+        <f t="shared" si="14"/>
+        <v>310</v>
       </c>
       <c r="L34">
-        <f t="shared" si="52"/>
-        <v>596</v>
-      </c>
-      <c r="M34" s="13"/>
+        <f t="shared" si="14"/>
+        <v>333</v>
+      </c>
+      <c r="M34" s="13">
+        <f t="shared" si="14"/>
+        <v>337</v>
+      </c>
       <c r="N34" s="16">
-        <f t="shared" si="21"/>
-        <v>635</v>
+        <f t="shared" si="7"/>
+        <v>476</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="38"/>
-        <v>698</v>
+        <f t="shared" si="14"/>
+        <v>517</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="39"/>
-        <v>778</v>
+        <f t="shared" si="14"/>
+        <v>508</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="40"/>
-        <v>773</v>
+        <f t="shared" si="14"/>
+        <v>562</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" si="41"/>
-        <v>798</v>
-      </c>
-      <c r="S34" s="13"/>
+        <f t="shared" si="14"/>
+        <v>567</v>
+      </c>
+      <c r="S34" s="13">
+        <f t="shared" si="14"/>
+        <v>509</v>
+      </c>
       <c r="T34" s="16">
-        <f t="shared" si="42"/>
-        <v>1026</v>
+        <f t="shared" ref="T34:T39" si="15">MIN(N29 + ABS(N7-N8))</f>
+        <v>625</v>
       </c>
       <c r="U34" s="6">
-        <f t="shared" si="43"/>
-        <v>1056</v>
+        <f t="shared" si="14"/>
+        <v>625</v>
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>160</v>
       </c>
       <c r="C35">
-        <f t="shared" si="44"/>
-        <v>360</v>
+        <f t="shared" ref="C35:U35" si="16">MIN(B35+ABS(C14-B14),C36 + ABS(C14-C15))</f>
+        <v>170</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="45"/>
-        <v>360</v>
+        <f t="shared" si="16"/>
+        <v>215</v>
       </c>
       <c r="E35">
-        <f t="shared" si="46"/>
-        <v>327</v>
+        <f t="shared" si="16"/>
+        <v>272</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="47"/>
-        <v>371</v>
+        <f t="shared" si="16"/>
+        <v>244</v>
       </c>
       <c r="G35">
-        <f t="shared" si="48"/>
-        <v>345</v>
+        <f t="shared" si="16"/>
+        <v>230</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="49"/>
-        <v>387</v>
+        <f t="shared" si="16"/>
+        <v>260</v>
       </c>
       <c r="I35" s="17">
-        <f>MIN(H35+I14)</f>
-        <v>453</v>
+        <f>MIN(H35+ABS(I14-H14))</f>
+        <v>268</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="51"/>
-        <v>497</v>
+        <f t="shared" si="16"/>
+        <v>290</v>
       </c>
       <c r="K35">
-        <f t="shared" si="52"/>
-        <v>542</v>
+        <f t="shared" si="16"/>
+        <v>291</v>
       </c>
       <c r="L35">
-        <f t="shared" si="52"/>
-        <v>561</v>
-      </c>
-      <c r="M35" s="13"/>
+        <f t="shared" si="16"/>
+        <v>317</v>
+      </c>
+      <c r="M35" s="13">
+        <f t="shared" si="16"/>
+        <v>337</v>
+      </c>
       <c r="N35" s="16">
-        <f t="shared" si="21"/>
-        <v>625</v>
+        <f t="shared" si="7"/>
+        <v>457</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="38"/>
-        <v>641</v>
+        <f t="shared" si="16"/>
+        <v>470</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="39"/>
-        <v>718</v>
+        <f t="shared" si="16"/>
+        <v>505</v>
       </c>
       <c r="Q35" s="17">
-        <f t="shared" ref="Q35:R35" si="53">MIN(P35+Q14)</f>
-        <v>753</v>
+        <f>MIN(P35+ABS(Q14-P14))</f>
+        <v>547</v>
       </c>
       <c r="R35" s="17">
-        <f t="shared" si="53"/>
-        <v>829</v>
-      </c>
-      <c r="S35" s="13"/>
+        <f>MIN(Q35+ABS(R14-Q14))</f>
+        <v>588</v>
+      </c>
+      <c r="S35" s="13">
+        <f t="shared" si="16"/>
+        <v>509</v>
+      </c>
       <c r="T35" s="16">
-        <f t="shared" si="42"/>
-        <v>975</v>
+        <f t="shared" si="15"/>
+        <v>599</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" si="43"/>
-        <v>1004</v>
+        <f t="shared" si="16"/>
+        <v>605</v>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <f t="shared" si="0"/>
-        <v>282</v>
+        <v>156</v>
       </c>
       <c r="C36">
-        <f t="shared" si="29"/>
-        <v>314</v>
+        <f t="shared" ref="C36:U36" si="17">MIN(B36+ABS(C15-B15),C37 + ABS(C15-C16))</f>
+        <v>156</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="29"/>
-        <v>269</v>
+        <f t="shared" si="17"/>
+        <v>184</v>
       </c>
       <c r="E36">
-        <f t="shared" si="46"/>
-        <v>299</v>
+        <f t="shared" si="17"/>
+        <v>229</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="47"/>
-        <v>291</v>
+        <f t="shared" si="17"/>
+        <v>185</v>
       </c>
       <c r="G36">
-        <f t="shared" si="48"/>
-        <v>301</v>
+        <f t="shared" si="17"/>
+        <v>196</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="49"/>
-        <v>313</v>
-      </c>
-      <c r="I36" s="13"/>
+        <f t="shared" si="17"/>
+        <v>198</v>
+      </c>
+      <c r="I36" s="13">
+        <f t="shared" si="17"/>
+        <v>207</v>
+      </c>
       <c r="J36" s="16">
-        <f t="shared" ref="J36:J40" si="54">MIN(J37 + J15)</f>
-        <v>574</v>
+        <f t="shared" ref="J36:J40" si="18">MIN(J37 + ABS(J15-J16))</f>
+        <v>393</v>
       </c>
       <c r="K36">
-        <f t="shared" ref="K36:K41" si="55">MIN(J36+K15,K37 + K15)</f>
-        <v>575</v>
+        <f t="shared" si="17"/>
+        <v>398</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36:M41" si="56">MIN(K36+L15,L37 + L15)</f>
-        <v>584</v>
+        <f t="shared" si="17"/>
+        <v>455</v>
       </c>
       <c r="M36">
-        <f t="shared" si="56"/>
-        <v>569</v>
+        <f t="shared" si="17"/>
+        <v>459</v>
       </c>
       <c r="N36">
-        <f t="shared" ref="N36:N40" si="57">MIN(M36+N15,N37 + N15)</f>
-        <v>596</v>
+        <f t="shared" si="17"/>
+        <v>455</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" ref="O36:O40" si="58">MIN(N36+O15,O37 + O15)</f>
-        <v>634</v>
+        <f t="shared" si="17"/>
+        <v>466</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" ref="P36:P40" si="59">MIN(O36+P15,P37 + P15)</f>
-        <v>691</v>
-      </c>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
+        <f t="shared" si="17"/>
+        <v>497</v>
+      </c>
+      <c r="Q36" s="13">
+        <f t="shared" si="17"/>
+        <v>509</v>
+      </c>
+      <c r="R36" s="13">
+        <f t="shared" si="17"/>
+        <v>509</v>
+      </c>
+      <c r="S36" s="13">
+        <f t="shared" si="17"/>
+        <v>509</v>
+      </c>
       <c r="T36" s="16">
-        <f t="shared" si="42"/>
-        <v>909</v>
+        <f t="shared" si="15"/>
+        <v>577</v>
       </c>
       <c r="U36" s="6">
-        <f t="shared" si="43"/>
-        <v>932</v>
+        <f t="shared" si="17"/>
+        <v>588</v>
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="C37">
-        <f t="shared" si="29"/>
-        <v>307</v>
+        <f t="shared" ref="C37:U37" si="19">MIN(B37+ABS(C16-B16),C38 + ABS(C16-C17))</f>
+        <v>149</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="29"/>
-        <v>265</v>
+        <f t="shared" si="19"/>
+        <v>159</v>
       </c>
       <c r="E37">
-        <f t="shared" si="46"/>
-        <v>228</v>
+        <f t="shared" si="19"/>
+        <v>171</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="47"/>
-        <v>270</v>
+        <f t="shared" si="19"/>
+        <v>164</v>
       </c>
       <c r="G37" s="17">
-        <f t="shared" ref="G37:H37" si="60">MIN(F37+G16)</f>
-        <v>362</v>
+        <f>MIN(F37+ABS(G16-F16))</f>
+        <v>214</v>
       </c>
       <c r="H37" s="17">
-        <f t="shared" si="60"/>
-        <v>386</v>
-      </c>
-      <c r="I37" s="13"/>
+        <f>MIN(G37+ABS(H16-G16))</f>
+        <v>282</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" si="19"/>
+        <v>207</v>
+      </c>
       <c r="J37" s="16">
-        <f t="shared" si="54"/>
-        <v>533</v>
+        <f t="shared" si="18"/>
+        <v>367</v>
       </c>
       <c r="K37">
-        <f t="shared" si="55"/>
-        <v>539</v>
+        <f t="shared" si="19"/>
+        <v>428</v>
       </c>
       <c r="L37">
-        <f t="shared" si="56"/>
-        <v>491</v>
+        <f t="shared" si="19"/>
+        <v>430</v>
       </c>
       <c r="M37">
-        <f t="shared" si="56"/>
-        <v>536</v>
+        <f t="shared" si="19"/>
+        <v>447</v>
       </c>
       <c r="N37">
-        <f t="shared" si="57"/>
-        <v>569</v>
+        <f t="shared" si="19"/>
+        <v>449</v>
       </c>
       <c r="O37" s="6">
-        <f t="shared" si="58"/>
-        <v>661</v>
+        <f t="shared" si="19"/>
+        <v>494</v>
       </c>
       <c r="P37" s="6">
-        <f t="shared" si="59"/>
-        <v>622</v>
+        <f t="shared" si="19"/>
+        <v>519</v>
       </c>
       <c r="Q37">
-        <f t="shared" ref="Q37:Q40" si="61">MIN(P37+Q16,Q38 + Q16)</f>
-        <v>598</v>
+        <f t="shared" si="19"/>
+        <v>502</v>
       </c>
       <c r="R37" s="15">
-        <f t="shared" ref="R37:S40" si="62">MIN(Q37+R16,R38 + R16)</f>
-        <v>696</v>
-      </c>
-      <c r="S37" s="13"/>
+        <f t="shared" si="19"/>
+        <v>568</v>
+      </c>
+      <c r="S37" s="13">
+        <f t="shared" si="19"/>
+        <v>545</v>
+      </c>
       <c r="T37" s="16">
-        <f t="shared" si="42"/>
-        <v>875</v>
+        <f t="shared" si="15"/>
+        <v>549</v>
       </c>
       <c r="U37" s="6">
-        <f t="shared" si="43"/>
-        <v>951</v>
+        <f t="shared" si="19"/>
+        <v>566</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
         <f t="shared" si="0"/>
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="C38">
-        <f t="shared" si="29"/>
-        <v>230</v>
+        <f t="shared" ref="C38:U38" si="20">MIN(B38+ABS(C17-B17),C39 + ABS(C17-C18))</f>
+        <v>100</v>
       </c>
       <c r="D38">
-        <f t="shared" si="29"/>
-        <v>178</v>
+        <f t="shared" si="20"/>
+        <v>119</v>
       </c>
       <c r="E38">
-        <f t="shared" si="46"/>
-        <v>215</v>
+        <f t="shared" si="20"/>
+        <v>147</v>
       </c>
       <c r="F38">
-        <f t="shared" si="46"/>
-        <v>228</v>
-      </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+        <f t="shared" si="20"/>
+        <v>158</v>
+      </c>
+      <c r="G38" s="13">
+        <f t="shared" si="20"/>
+        <v>207</v>
+      </c>
+      <c r="H38" s="13">
+        <f t="shared" si="20"/>
+        <v>207</v>
+      </c>
+      <c r="I38" s="13">
+        <f t="shared" si="20"/>
+        <v>207</v>
+      </c>
       <c r="J38" s="16">
-        <f t="shared" si="54"/>
-        <v>466</v>
+        <f t="shared" si="18"/>
+        <v>354</v>
       </c>
       <c r="K38">
-        <f t="shared" si="55"/>
-        <v>560</v>
+        <f t="shared" si="20"/>
+        <v>394</v>
       </c>
       <c r="L38">
-        <f t="shared" si="56"/>
-        <v>483</v>
+        <f t="shared" si="20"/>
+        <v>419</v>
       </c>
       <c r="M38">
-        <f t="shared" si="56"/>
-        <v>518</v>
+        <f t="shared" si="20"/>
+        <v>437</v>
       </c>
       <c r="N38">
-        <f t="shared" si="57"/>
-        <v>558</v>
+        <f t="shared" si="20"/>
+        <v>442</v>
       </c>
       <c r="O38" s="6">
-        <f t="shared" si="58"/>
-        <v>604</v>
+        <f t="shared" si="20"/>
+        <v>452</v>
       </c>
       <c r="P38" s="6">
-        <f t="shared" si="59"/>
-        <v>573</v>
+        <f t="shared" si="20"/>
+        <v>486</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="61"/>
-        <v>592</v>
+        <f t="shared" si="20"/>
+        <v>489</v>
       </c>
       <c r="R38">
-        <f t="shared" si="62"/>
-        <v>629</v>
-      </c>
-      <c r="S38" s="13"/>
+        <f t="shared" si="20"/>
+        <v>507</v>
+      </c>
+      <c r="S38" s="13">
+        <f t="shared" si="20"/>
+        <v>545</v>
+      </c>
       <c r="T38" s="16">
-        <f t="shared" si="42"/>
-        <v>836</v>
+        <f t="shared" si="15"/>
+        <v>532</v>
       </c>
       <c r="U38" s="6">
-        <f t="shared" si="43"/>
-        <v>870</v>
+        <f t="shared" si="20"/>
+        <v>563</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="8">
         <f t="shared" si="0"/>
-        <v>184</v>
+        <v>68</v>
       </c>
       <c r="C39">
-        <f t="shared" si="29"/>
-        <v>209</v>
+        <f t="shared" ref="C39:U39" si="21">MIN(B39+ABS(C18-B18),C40 + ABS(C18-C19))</f>
+        <v>93</v>
       </c>
       <c r="D39">
-        <f t="shared" si="29"/>
-        <v>169</v>
+        <f t="shared" si="21"/>
+        <v>128</v>
       </c>
       <c r="E39">
-        <f t="shared" si="46"/>
-        <v>199</v>
+        <f t="shared" si="21"/>
+        <v>157</v>
       </c>
       <c r="F39">
-        <f t="shared" si="46"/>
-        <v>180</v>
+        <f t="shared" si="21"/>
+        <v>176</v>
       </c>
       <c r="G39">
-        <f t="shared" ref="G39:G41" si="63">MIN(F39+G18,G40 + G18)</f>
-        <v>239</v>
+        <f t="shared" si="21"/>
+        <v>225</v>
       </c>
       <c r="H39" s="15">
-        <f t="shared" ref="H39:H41" si="64">MIN(G39+H18,H40 + H18)</f>
-        <v>337</v>
-      </c>
-      <c r="I39" s="13"/>
+        <f t="shared" si="21"/>
+        <v>250</v>
+      </c>
+      <c r="I39" s="13">
+        <f t="shared" si="21"/>
+        <v>265</v>
+      </c>
       <c r="J39" s="16">
-        <f t="shared" si="54"/>
-        <v>412</v>
+        <f t="shared" si="18"/>
+        <v>342</v>
       </c>
       <c r="K39">
-        <f t="shared" si="55"/>
-        <v>487</v>
+        <f t="shared" si="21"/>
+        <v>390</v>
       </c>
       <c r="L39">
-        <f t="shared" si="56"/>
-        <v>430</v>
+        <f t="shared" si="21"/>
+        <v>390</v>
       </c>
       <c r="M39">
-        <f t="shared" si="56"/>
-        <v>525</v>
+        <f t="shared" si="21"/>
+        <v>461</v>
       </c>
       <c r="N39">
-        <f t="shared" si="57"/>
-        <v>534</v>
+        <f t="shared" si="21"/>
+        <v>505</v>
       </c>
       <c r="O39" s="6">
-        <f t="shared" si="58"/>
-        <v>554</v>
+        <f t="shared" si="21"/>
+        <v>494</v>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="59"/>
-        <v>557</v>
+        <f t="shared" si="21"/>
+        <v>511</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="61"/>
-        <v>650</v>
+        <f t="shared" si="21"/>
+        <v>565</v>
       </c>
       <c r="R39">
-        <f t="shared" si="62"/>
-        <v>725</v>
-      </c>
-      <c r="S39" s="13"/>
+        <f t="shared" si="21"/>
+        <v>571</v>
+      </c>
+      <c r="S39" s="13">
+        <f t="shared" si="21"/>
+        <v>565</v>
+      </c>
       <c r="T39" s="16">
-        <f t="shared" si="42"/>
-        <v>831</v>
+        <f t="shared" si="15"/>
+        <v>486</v>
       </c>
       <c r="U39" s="6">
-        <f t="shared" si="43"/>
-        <v>792</v>
+        <f t="shared" si="21"/>
+        <v>527</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="8">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="C40">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="C40:U40" si="22">MIN(B40+ABS(C19-B19),C41 + ABS(C19-C20))</f>
+        <v>68</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="22"/>
+        <v>103</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="22"/>
+        <v>139</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="22"/>
         <v>174</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="29"/>
-        <v>99</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="46"/>
-        <v>158</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="46"/>
-        <v>170</v>
-      </c>
       <c r="G40">
-        <f t="shared" si="63"/>
-        <v>249</v>
+        <f t="shared" si="22"/>
+        <v>205</v>
       </c>
       <c r="H40">
-        <f t="shared" si="64"/>
-        <v>264</v>
-      </c>
-      <c r="I40" s="13"/>
+        <f t="shared" si="22"/>
+        <v>208</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" si="22"/>
+        <v>265</v>
+      </c>
       <c r="J40" s="16">
-        <f t="shared" si="54"/>
-        <v>370</v>
+        <f t="shared" si="18"/>
+        <v>311</v>
       </c>
       <c r="K40">
-        <f t="shared" si="55"/>
-        <v>397</v>
+        <f t="shared" si="22"/>
+        <v>357</v>
       </c>
       <c r="L40">
-        <f t="shared" si="56"/>
-        <v>406</v>
+        <f t="shared" si="22"/>
+        <v>375</v>
       </c>
       <c r="M40">
-        <f t="shared" si="56"/>
+        <f t="shared" si="22"/>
+        <v>440</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="22"/>
+        <v>457</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="22"/>
         <v>480</v>
       </c>
-      <c r="N40">
-        <f t="shared" si="57"/>
-        <v>537</v>
-      </c>
-      <c r="O40" s="6">
-        <f t="shared" si="58"/>
-        <v>571</v>
-      </c>
       <c r="P40" s="6">
-        <f t="shared" si="59"/>
-        <v>592</v>
+        <f t="shared" si="22"/>
+        <v>493</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="61"/>
-        <v>631</v>
+        <f t="shared" si="22"/>
+        <v>511</v>
       </c>
       <c r="R40">
-        <f t="shared" si="62"/>
-        <v>638</v>
+        <f t="shared" si="22"/>
+        <v>543</v>
       </c>
       <c r="S40">
-        <f t="shared" si="62"/>
-        <v>652</v>
+        <f t="shared" si="22"/>
+        <v>550</v>
       </c>
       <c r="T40">
-        <f t="shared" ref="T33:T40" si="65">MIN(S40+T19,T41 + T19)</f>
-        <v>748</v>
+        <f t="shared" si="22"/>
+        <v>606</v>
       </c>
       <c r="U40" s="6">
-        <f t="shared" si="43"/>
-        <v>750</v>
+        <f t="shared" si="22"/>
+        <v>672</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="8">
-        <f>B42+B20</f>
-        <v>60</v>
+        <f>B42+ABS(B21-B20)</f>
+        <v>54</v>
       </c>
       <c r="C41">
-        <f>MIN(B41+C20,C42 + C20)</f>
-        <v>106</v>
+        <f>MIN(B41+ABS(C20-B20),C42 + ABS(C20-C21))</f>
+        <v>62</v>
       </c>
       <c r="D41">
-        <f>MIN(C41+D20,D42 + D20)</f>
+        <f t="shared" ref="D41:U41" si="23">MIN(C41+ABS(D20-C20),D42 + ABS(D20-D21))</f>
+        <v>85</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="23"/>
         <v>94</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="46"/>
-        <v>108</v>
-      </c>
       <c r="F41">
-        <f t="shared" si="46"/>
-        <v>161</v>
+        <f t="shared" si="23"/>
+        <v>133</v>
       </c>
       <c r="G41">
-        <f t="shared" si="63"/>
-        <v>191</v>
+        <f t="shared" si="23"/>
+        <v>156</v>
       </c>
       <c r="H41">
-        <f t="shared" si="64"/>
-        <v>208</v>
+        <f t="shared" si="23"/>
+        <v>169</v>
       </c>
       <c r="I41">
-        <f t="shared" ref="I41" si="66">MIN(H41+I20,I42 + I20)</f>
-        <v>274</v>
+        <f t="shared" si="23"/>
+        <v>218</v>
       </c>
       <c r="J41">
-        <f t="shared" ref="J36:J41" si="67">MIN(I41+J20,J42 + J20)</f>
-        <v>297</v>
+        <f t="shared" si="23"/>
+        <v>261</v>
       </c>
       <c r="K41">
-        <f t="shared" si="55"/>
-        <v>386</v>
+        <f t="shared" si="23"/>
+        <v>327</v>
       </c>
       <c r="L41">
-        <f t="shared" si="56"/>
-        <v>397</v>
+        <f t="shared" si="23"/>
+        <v>380</v>
       </c>
       <c r="M41">
-        <f t="shared" ref="M41" si="68">MIN(L41+M20,M42 + M20)</f>
-        <v>470</v>
+        <f t="shared" si="23"/>
+        <v>434</v>
       </c>
       <c r="N41">
-        <f t="shared" ref="N41" si="69">MIN(M41+N20,N42 + N20)</f>
-        <v>530</v>
+        <f t="shared" si="23"/>
+        <v>453</v>
       </c>
       <c r="O41">
-        <f t="shared" ref="O41" si="70">MIN(N41+O20,O42 + O20)</f>
-        <v>587</v>
+        <f t="shared" si="23"/>
+        <v>458</v>
       </c>
       <c r="P41">
-        <f t="shared" ref="P41" si="71">MIN(O41+P20,P42 + P20)</f>
-        <v>607</v>
+        <f t="shared" si="23"/>
+        <v>472</v>
       </c>
       <c r="Q41">
-        <f t="shared" ref="Q41" si="72">MIN(P41+Q20,Q42 + Q20)</f>
-        <v>697</v>
+        <f t="shared" si="23"/>
+        <v>472</v>
       </c>
       <c r="R41">
-        <f t="shared" ref="R41" si="73">MIN(Q41+R20,R42 + R20)</f>
-        <v>666</v>
+        <f t="shared" si="23"/>
+        <v>536</v>
       </c>
       <c r="S41">
-        <f t="shared" ref="S41" si="74">MIN(R41+S20,S42 + S20)</f>
-        <v>721</v>
+        <f t="shared" si="23"/>
+        <v>565</v>
       </c>
       <c r="T41">
-        <f t="shared" ref="T41" si="75">MIN(S41+T20,T42 + T20)</f>
-        <v>769</v>
+        <f t="shared" si="23"/>
+        <v>595</v>
       </c>
       <c r="U41">
-        <f t="shared" ref="U41" si="76">MIN(T41+U20,U42 + U20)</f>
-        <v>742</v>
+        <f t="shared" si="23"/>
+        <v>658</v>
       </c>
     </row>
     <row r="42" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3225,81 +3332,81 @@
         <f>B21</f>
         <v>6</v>
       </c>
-      <c r="C42" s="11">
-        <f>B42+C21</f>
-        <v>63</v>
+      <c r="C42" s="8">
+        <f>B42+ABS(C21-B21)</f>
+        <v>57</v>
       </c>
       <c r="D42" s="11">
-        <f t="shared" ref="D42:U42" si="77">C42+D21</f>
-        <v>71</v>
+        <f t="shared" ref="D42:U42" si="24">C42+ABS(D21-C21)</f>
+        <v>106</v>
       </c>
       <c r="E42" s="11">
-        <f t="shared" si="77"/>
-        <v>97</v>
+        <f t="shared" si="24"/>
+        <v>124</v>
       </c>
       <c r="F42" s="11">
-        <f t="shared" si="77"/>
-        <v>122</v>
+        <f t="shared" si="24"/>
+        <v>125</v>
       </c>
       <c r="G42" s="11">
-        <f t="shared" si="77"/>
-        <v>196</v>
+        <f t="shared" si="24"/>
+        <v>174</v>
       </c>
       <c r="H42" s="11">
-        <f t="shared" si="77"/>
-        <v>228</v>
+        <f t="shared" si="24"/>
+        <v>216</v>
       </c>
       <c r="I42" s="11">
-        <f t="shared" si="77"/>
-        <v>230</v>
+        <f t="shared" si="24"/>
+        <v>246</v>
       </c>
       <c r="J42" s="11">
-        <f t="shared" si="77"/>
-        <v>305</v>
+        <f t="shared" si="24"/>
+        <v>319</v>
       </c>
       <c r="K42" s="11">
-        <f t="shared" si="77"/>
-        <v>357</v>
+        <f t="shared" si="24"/>
+        <v>342</v>
       </c>
       <c r="L42" s="11">
-        <f t="shared" si="77"/>
-        <v>361</v>
+        <f t="shared" si="24"/>
+        <v>390</v>
       </c>
       <c r="M42" s="11">
-        <f t="shared" si="77"/>
-        <v>380</v>
+        <f t="shared" si="24"/>
+        <v>405</v>
       </c>
       <c r="N42" s="11">
-        <f t="shared" si="77"/>
-        <v>459</v>
+        <f t="shared" si="24"/>
+        <v>465</v>
       </c>
       <c r="O42" s="11">
-        <f t="shared" si="77"/>
-        <v>511</v>
+        <f t="shared" si="24"/>
+        <v>492</v>
       </c>
       <c r="P42" s="11">
-        <f t="shared" si="77"/>
-        <v>517</v>
+        <f t="shared" si="24"/>
+        <v>538</v>
       </c>
       <c r="Q42" s="11">
-        <f t="shared" si="77"/>
-        <v>610</v>
+        <f t="shared" si="24"/>
+        <v>625</v>
       </c>
       <c r="R42" s="11">
-        <f t="shared" si="77"/>
-        <v>640</v>
+        <f t="shared" si="24"/>
+        <v>688</v>
       </c>
       <c r="S42" s="11">
-        <f t="shared" si="77"/>
-        <v>679</v>
+        <f t="shared" si="24"/>
+        <v>697</v>
       </c>
       <c r="T42" s="11">
-        <f t="shared" si="77"/>
-        <v>684</v>
+        <f t="shared" si="24"/>
+        <v>731</v>
       </c>
       <c r="U42" s="11">
-        <f t="shared" si="77"/>
-        <v>720</v>
+        <f t="shared" si="24"/>
+        <v>762</v>
       </c>
     </row>
   </sheetData>
